--- a/Peaks-dataset-article/redes-ensemble-s/Teste02/content/results/metrics_15_7.xlsx
+++ b/Peaks-dataset-article/redes-ensemble-s/Teste02/content/results/metrics_15_7.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Q21"/>
+  <dimension ref="A1:Q26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -518,1101 +518,1376 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>model_15_7_19</t>
+          <t>model_15_7_24</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.9450459397888354</v>
+        <v>0.9686632690408533</v>
       </c>
       <c r="C2" t="n">
-        <v>0.7360790278276733</v>
+        <v>0.7589839668350783</v>
       </c>
       <c r="D2" t="n">
-        <v>0.9568173045447889</v>
+        <v>0.9798423844240041</v>
       </c>
       <c r="E2" t="n">
-        <v>0.9633626607102534</v>
+        <v>0.9341731861696916</v>
       </c>
       <c r="F2" t="n">
-        <v>0.9644601874055697</v>
+        <v>0.9764703984517973</v>
       </c>
       <c r="G2" t="n">
-        <v>0.367478053672238</v>
+        <v>0.2095488642161919</v>
       </c>
       <c r="H2" t="n">
-        <v>1.764840756160684</v>
+        <v>1.61167532355062</v>
       </c>
       <c r="I2" t="n">
-        <v>0.03402367017324733</v>
+        <v>0.1650183135897306</v>
       </c>
       <c r="J2" t="n">
-        <v>0.2622726756506892</v>
+        <v>0.4071916919001726</v>
       </c>
       <c r="K2" t="n">
-        <v>0.1481481690776116</v>
+        <v>0.2861049398957213</v>
       </c>
       <c r="L2" t="n">
-        <v>1.216616012500123</v>
+        <v>1.312285415416703</v>
       </c>
       <c r="M2" t="n">
-        <v>0.6061996813528014</v>
+        <v>0.4577650753565544</v>
       </c>
       <c r="N2" t="n">
-        <v>1.026916274389142</v>
+        <v>1.015348602918766</v>
       </c>
       <c r="O2" t="n">
-        <v>0.6320068567943241</v>
+        <v>0.4772530823188231</v>
       </c>
       <c r="P2" t="n">
-        <v>148.0021833600222</v>
+        <v>149.1255966494692</v>
       </c>
       <c r="Q2" t="n">
-        <v>236.9801185754008</v>
+        <v>238.1035318648478</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>model_15_7_18</t>
+          <t>model_15_7_23</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.9444188427607745</v>
+        <v>0.9683780132448716</v>
       </c>
       <c r="C3" t="n">
-        <v>0.7353443601178729</v>
+        <v>0.7585657001960093</v>
       </c>
       <c r="D3" t="n">
-        <v>0.9595706112999739</v>
+        <v>0.9803119870916357</v>
       </c>
       <c r="E3" t="n">
-        <v>0.9650730681463557</v>
+        <v>0.9340413734345909</v>
       </c>
       <c r="F3" t="n">
-        <v>0.9661890384373479</v>
+        <v>0.9765949507467337</v>
       </c>
       <c r="G3" t="n">
-        <v>0.3716714543863974</v>
+        <v>0.2114563710374044</v>
       </c>
       <c r="H3" t="n">
-        <v>1.769753482518953</v>
+        <v>1.614472274492015</v>
       </c>
       <c r="I3" t="n">
-        <v>0.03185433822356974</v>
+        <v>0.1611739580915497</v>
       </c>
       <c r="J3" t="n">
-        <v>0.2500285240988612</v>
+        <v>0.4080070594912274</v>
       </c>
       <c r="K3" t="n">
-        <v>0.1409414311612155</v>
+        <v>0.2845904634697746</v>
       </c>
       <c r="L3" t="n">
-        <v>1.221960518649259</v>
+        <v>1.328709504561176</v>
       </c>
       <c r="M3" t="n">
-        <v>0.6096486319072629</v>
+        <v>0.4598438550610462</v>
       </c>
       <c r="N3" t="n">
-        <v>1.027223423953906</v>
+        <v>1.015488320043328</v>
       </c>
       <c r="O3" t="n">
-        <v>0.635602636314201</v>
+        <v>0.4794203599790023</v>
       </c>
       <c r="P3" t="n">
-        <v>147.9794900041638</v>
+        <v>149.1074731705725</v>
       </c>
       <c r="Q3" t="n">
-        <v>236.9574252195424</v>
+        <v>238.0854083859512</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>model_15_7_17</t>
+          <t>model_15_7_22</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.9437506906492198</v>
+        <v>0.9680775217216766</v>
       </c>
       <c r="C4" t="n">
-        <v>0.7345843231273264</v>
+        <v>0.7581325431433812</v>
       </c>
       <c r="D4" t="n">
-        <v>0.9619061470618305</v>
+        <v>0.9807785833242385</v>
       </c>
       <c r="E4" t="n">
-        <v>0.9667053966686693</v>
+        <v>0.9338597695202708</v>
       </c>
       <c r="F4" t="n">
-        <v>0.9678113648608944</v>
+        <v>0.9767058314017948</v>
       </c>
       <c r="G4" t="n">
-        <v>0.3761393906329215</v>
+        <v>0.2134657592366457</v>
       </c>
       <c r="H4" t="n">
-        <v>1.774835853374385</v>
+        <v>1.617368797697444</v>
       </c>
       <c r="I4" t="n">
-        <v>0.03001416827582636</v>
+        <v>0.157354214474495</v>
       </c>
       <c r="J4" t="n">
-        <v>0.2383433095776225</v>
+        <v>0.4091304255000751</v>
       </c>
       <c r="K4" t="n">
-        <v>0.134178742453839</v>
+        <v>0.283242225460438</v>
       </c>
       <c r="L4" t="n">
-        <v>1.227315344192658</v>
+        <v>1.344989391674505</v>
       </c>
       <c r="M4" t="n">
-        <v>0.6133020386668558</v>
+        <v>0.4620235483572733</v>
       </c>
       <c r="N4" t="n">
-        <v>1.027550682130994</v>
+        <v>1.015635499564893</v>
       </c>
       <c r="O4" t="n">
-        <v>0.6394115761631443</v>
+        <v>0.481692847331437</v>
       </c>
       <c r="P4" t="n">
-        <v>147.9555909690469</v>
+        <v>149.0885576749162</v>
       </c>
       <c r="Q4" t="n">
-        <v>236.9335261844255</v>
+        <v>238.0664928902949</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>model_15_7_16</t>
+          <t>model_15_7_21</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.9430411588477227</v>
+        <v>0.967761493285177</v>
       </c>
       <c r="C5" t="n">
-        <v>0.7337985888008938</v>
+        <v>0.7576843081080311</v>
       </c>
       <c r="D5" t="n">
-        <v>0.9638110625165172</v>
+        <v>0.9812421188439087</v>
       </c>
       <c r="E5" t="n">
-        <v>0.9682607020477193</v>
+        <v>0.9336270826243165</v>
       </c>
       <c r="F5" t="n">
-        <v>0.969326856475108</v>
+        <v>0.9768026762487922</v>
       </c>
       <c r="G5" t="n">
-        <v>0.3808840330566264</v>
+        <v>0.2155790428466954</v>
       </c>
       <c r="H5" t="n">
-        <v>1.780090062433215</v>
+        <v>1.620366147442762</v>
       </c>
       <c r="I5" t="n">
-        <v>0.02851328431166054</v>
+        <v>0.1535595270792267</v>
       </c>
       <c r="J5" t="n">
-        <v>0.2272094742302632</v>
+        <v>0.4105697807617603</v>
       </c>
       <c r="K5" t="n">
-        <v>0.127861396032789</v>
+        <v>0.2820646539204935</v>
       </c>
       <c r="L5" t="n">
-        <v>1.23268385511822</v>
+        <v>1.361121551258802</v>
       </c>
       <c r="M5" t="n">
-        <v>0.6171580292409931</v>
+        <v>0.4643049028889264</v>
       </c>
       <c r="N5" t="n">
-        <v>1.027898207911319</v>
+        <v>1.015790289003179</v>
       </c>
       <c r="O5" t="n">
-        <v>0.6434317242390234</v>
+        <v>0.4840713238485574</v>
       </c>
       <c r="P5" t="n">
-        <v>147.9305206507328</v>
+        <v>149.0688552970739</v>
       </c>
       <c r="Q5" t="n">
-        <v>236.9084558661115</v>
+        <v>238.0467905124525</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>model_15_7_15</t>
+          <t>model_15_7_20</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.9422896019388876</v>
+        <v>0.9674295733684329</v>
       </c>
       <c r="C6" t="n">
-        <v>0.7329868430911795</v>
+        <v>0.7572207401475246</v>
       </c>
       <c r="D6" t="n">
-        <v>0.9652727967919683</v>
+        <v>0.9817023544977027</v>
       </c>
       <c r="E6" t="n">
-        <v>0.9697401820021213</v>
+        <v>0.9333424013467062</v>
       </c>
       <c r="F6" t="n">
-        <v>0.9707353622525954</v>
+        <v>0.9768851925493064</v>
       </c>
       <c r="G6" t="n">
-        <v>0.3859096975666083</v>
+        <v>0.2177985928583136</v>
       </c>
       <c r="H6" t="n">
-        <v>1.78551820973182</v>
+        <v>1.623466028529204</v>
       </c>
       <c r="I6" t="n">
-        <v>0.02736158304927724</v>
+        <v>0.1497918537075108</v>
       </c>
       <c r="J6" t="n">
-        <v>0.2166184440480809</v>
+        <v>0.4123307630171259</v>
       </c>
       <c r="K6" t="n">
-        <v>0.1219900214577101</v>
+        <v>0.2810613083623184</v>
       </c>
       <c r="L6" t="n">
-        <v>1.238065829655798</v>
+        <v>1.37711493234214</v>
       </c>
       <c r="M6" t="n">
-        <v>0.621216304974852</v>
+        <v>0.4666889680057946</v>
       </c>
       <c r="N6" t="n">
-        <v>1.028266317417688</v>
+        <v>1.015952862023625</v>
       </c>
       <c r="O6" t="n">
-        <v>0.6476627691726616</v>
+        <v>0.4865568835531459</v>
       </c>
       <c r="P6" t="n">
-        <v>147.9043037620289</v>
+        <v>149.0483690584196</v>
       </c>
       <c r="Q6" t="n">
-        <v>236.8822389774076</v>
+        <v>238.0263042737982</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>model_15_7_14</t>
+          <t>model_15_7_19</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.9414958214775805</v>
+        <v>0.9670814362261769</v>
       </c>
       <c r="C7" t="n">
-        <v>0.7321487149228529</v>
+        <v>0.7567416757125425</v>
       </c>
       <c r="D7" t="n">
-        <v>0.9662783899535087</v>
+        <v>0.9821592560445882</v>
       </c>
       <c r="E7" t="n">
-        <v>0.9711450993253635</v>
+        <v>0.9330046142324158</v>
       </c>
       <c r="F7" t="n">
-        <v>0.9720367361763438</v>
+        <v>0.9769530757163762</v>
       </c>
       <c r="G7" t="n">
-        <v>0.391217711166391</v>
+        <v>0.2201265875316036</v>
       </c>
       <c r="H7" t="n">
-        <v>1.791122776652644</v>
+        <v>1.626669534611818</v>
       </c>
       <c r="I7" t="n">
-        <v>0.02656927562853716</v>
+        <v>0.1460514746701526</v>
       </c>
       <c r="J7" t="n">
-        <v>0.2065611791762873</v>
+        <v>0.4144202475078165</v>
       </c>
       <c r="K7" t="n">
-        <v>0.1165652274024122</v>
+        <v>0.2802358923689937</v>
       </c>
       <c r="L7" t="n">
-        <v>1.243459362912755</v>
+        <v>1.392965489054485</v>
       </c>
       <c r="M7" t="n">
-        <v>0.625473989200503</v>
+        <v>0.4691764993385789</v>
       </c>
       <c r="N7" t="n">
-        <v>1.028655107847716</v>
+        <v>1.016123378174934</v>
       </c>
       <c r="O7" t="n">
-        <v>0.65210171183042</v>
+        <v>0.4891503142446665</v>
       </c>
       <c r="P7" t="n">
-        <v>147.8769821358072</v>
+        <v>149.0271050004735</v>
       </c>
       <c r="Q7" t="n">
-        <v>236.8549173511858</v>
+        <v>238.0050402158521</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>model_15_7_13</t>
+          <t>model_15_7_18</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.9406591167407642</v>
+        <v>0.9667167595332252</v>
       </c>
       <c r="C8" t="n">
-        <v>0.7312838406831752</v>
+        <v>0.7562469739608282</v>
       </c>
       <c r="D8" t="n">
-        <v>0.9668147894084069</v>
+        <v>0.9826127820929432</v>
       </c>
       <c r="E8" t="n">
-        <v>0.9724761756510441</v>
+        <v>0.9326127677172827</v>
       </c>
       <c r="F8" t="n">
-        <v>0.973230362657853</v>
+        <v>0.9770060769816739</v>
       </c>
       <c r="G8" t="n">
-        <v>0.3968127595941528</v>
+        <v>0.2225651822565532</v>
       </c>
       <c r="H8" t="n">
-        <v>1.796906194675749</v>
+        <v>1.629977607503424</v>
       </c>
       <c r="I8" t="n">
-        <v>0.02614664619463595</v>
+        <v>0.1423387288155443</v>
       </c>
       <c r="J8" t="n">
-        <v>0.1970325137164241</v>
+        <v>0.4168441327937356</v>
       </c>
       <c r="K8" t="n">
-        <v>0.11158957995553</v>
+        <v>0.2795914308046399</v>
       </c>
       <c r="L8" t="n">
-        <v>1.253240739826869</v>
+        <v>1.408680821996308</v>
       </c>
       <c r="M8" t="n">
-        <v>0.6299307577775138</v>
+        <v>0.4717681445970607</v>
       </c>
       <c r="N8" t="n">
-        <v>1.029064922412687</v>
+        <v>1.016301995330665</v>
       </c>
       <c r="O8" t="n">
-        <v>0.6567482142725369</v>
+        <v>0.4918522912072472</v>
       </c>
       <c r="P8" t="n">
-        <v>147.8485814957063</v>
+        <v>149.0050705326329</v>
       </c>
       <c r="Q8" t="n">
-        <v>236.8265167110849</v>
+        <v>237.9830057480115</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>model_15_7_12</t>
+          <t>model_15_7_17</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.9397789238591344</v>
+        <v>0.9663352064400846</v>
       </c>
       <c r="C9" t="n">
-        <v>0.7303917306089216</v>
+        <v>0.7557363864597657</v>
       </c>
       <c r="D9" t="n">
-        <v>0.9668665541706545</v>
+        <v>0.9830626852003211</v>
       </c>
       <c r="E9" t="n">
-        <v>0.9737345934946803</v>
+        <v>0.9321657823512005</v>
       </c>
       <c r="F9" t="n">
-        <v>0.9743158006011355</v>
+        <v>0.9770438294519108</v>
       </c>
       <c r="G9" t="n">
-        <v>0.4026986134465267</v>
+        <v>0.225116629547275</v>
       </c>
       <c r="H9" t="n">
-        <v>1.802871738850072</v>
+        <v>1.633391908474068</v>
       </c>
       <c r="I9" t="n">
-        <v>0.02610586070918298</v>
+        <v>0.1386556418066474</v>
       </c>
       <c r="J9" t="n">
-        <v>0.1880239824929399</v>
+        <v>0.4196090961404171</v>
       </c>
       <c r="K9" t="n">
-        <v>0.107064917831401</v>
+        <v>0.2791323848575189</v>
       </c>
       <c r="L9" t="n">
-        <v>1.269042189973506</v>
+        <v>1.42425891109852</v>
       </c>
       <c r="M9" t="n">
-        <v>0.6345853870414341</v>
+        <v>0.4744645714352916</v>
       </c>
       <c r="N9" t="n">
-        <v>1.029496037293485</v>
+        <v>1.016488878478326</v>
       </c>
       <c r="O9" t="n">
-        <v>0.6616010007406331</v>
+        <v>0.4946635105183546</v>
       </c>
       <c r="P9" t="n">
-        <v>147.8191337085462</v>
+        <v>148.9822733150661</v>
       </c>
       <c r="Q9" t="n">
-        <v>236.7970689239249</v>
+        <v>237.9602085304448</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>model_15_7_11</t>
+          <t>model_15_7_16</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.9388547984079617</v>
+        <v>0.9659364710181406</v>
       </c>
       <c r="C10" t="n">
-        <v>0.7294719605227122</v>
+        <v>0.755209737648576</v>
       </c>
       <c r="D10" t="n">
-        <v>0.9664201826650692</v>
+        <v>0.9835089704350016</v>
       </c>
       <c r="E10" t="n">
-        <v>0.9749213794528645</v>
+        <v>0.9316625021296023</v>
       </c>
       <c r="F10" t="n">
-        <v>0.9752926528015972</v>
+        <v>0.9770660417521173</v>
       </c>
       <c r="G10" t="n">
-        <v>0.408878244593725</v>
+        <v>0.2277829751498226</v>
       </c>
       <c r="H10" t="n">
-        <v>1.809022245651706</v>
+        <v>1.636913611499488</v>
       </c>
       <c r="I10" t="n">
-        <v>0.02645755707090083</v>
+        <v>0.135002172152495</v>
       </c>
       <c r="J10" t="n">
-        <v>0.1795282364941373</v>
+        <v>0.4227222883641931</v>
       </c>
       <c r="K10" t="n">
-        <v>0.1029928967825191</v>
+        <v>0.2788622974613305</v>
       </c>
       <c r="L10" t="n">
-        <v>1.284977487873888</v>
+        <v>1.439703795189665</v>
       </c>
       <c r="M10" t="n">
-        <v>0.6394358799705605</v>
+        <v>0.4772661470812932</v>
       </c>
       <c r="N10" t="n">
-        <v>1.029948670167529</v>
+        <v>1.016684177460503</v>
       </c>
       <c r="O10" t="n">
-        <v>0.666657989195657</v>
+        <v>0.4975843550396676</v>
       </c>
       <c r="P10" t="n">
-        <v>147.7886757154757</v>
+        <v>148.9587239334306</v>
       </c>
       <c r="Q10" t="n">
-        <v>236.7666109308543</v>
+        <v>237.9366591488092</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>model_15_7_10</t>
+          <t>model_15_7_15</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.9378861443816349</v>
+        <v>0.965520171273645</v>
       </c>
       <c r="C11" t="n">
-        <v>0.7285240035935723</v>
+        <v>0.7546668002620508</v>
       </c>
       <c r="D11" t="n">
-        <v>0.9654597410582616</v>
+        <v>0.9839513434666788</v>
       </c>
       <c r="E11" t="n">
-        <v>0.9760373445313878</v>
+        <v>0.9311022863262882</v>
       </c>
       <c r="F11" t="n">
-        <v>0.9761601120171556</v>
+        <v>0.9770724536190724</v>
       </c>
       <c r="G11" t="n">
-        <v>0.415355638528014</v>
+        <v>0.2305667734581491</v>
       </c>
       <c r="H11" t="n">
-        <v>1.815361238001805</v>
+        <v>1.640544236303179</v>
       </c>
       <c r="I11" t="n">
-        <v>0.02721428955612929</v>
+        <v>0.131380729358841</v>
       </c>
       <c r="J11" t="n">
-        <v>0.1715394700402657</v>
+        <v>0.4261876728710101</v>
       </c>
       <c r="K11" t="n">
-        <v>0.09937688180796045</v>
+        <v>0.2787843332507577</v>
       </c>
       <c r="L11" t="n">
-        <v>1.301051205440564</v>
+        <v>1.455019547148295</v>
       </c>
       <c r="M11" t="n">
-        <v>0.6444809062555803</v>
+        <v>0.4801736909266782</v>
       </c>
       <c r="N11" t="n">
-        <v>1.030423112955934</v>
+        <v>1.016888079376174</v>
       </c>
       <c r="O11" t="n">
-        <v>0.6719177926942742</v>
+        <v>0.5006156790459961</v>
       </c>
       <c r="P11" t="n">
-        <v>147.7572403308476</v>
+        <v>148.9344295377483</v>
       </c>
       <c r="Q11" t="n">
-        <v>236.7351755462263</v>
+        <v>237.912364753127</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>model_15_7_9</t>
+          <t>model_15_7_14</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.9368723417471134</v>
+        <v>0.9650859116877949</v>
       </c>
       <c r="C12" t="n">
-        <v>0.7275473425947642</v>
+        <v>0.7541074384452211</v>
       </c>
       <c r="D12" t="n">
-        <v>0.9639696294749784</v>
+        <v>0.9843897777374463</v>
       </c>
       <c r="E12" t="n">
-        <v>0.9770833222603842</v>
+        <v>0.9304833019104511</v>
       </c>
       <c r="F12" t="n">
-        <v>0.9769174202186929</v>
+        <v>0.9770625989099148</v>
       </c>
       <c r="G12" t="n">
-        <v>0.4221349414131907</v>
+        <v>0.2334706693083097</v>
       </c>
       <c r="H12" t="n">
-        <v>1.821892174597945</v>
+        <v>1.644284691347943</v>
       </c>
       <c r="I12" t="n">
-        <v>0.02838834931540368</v>
+        <v>0.1277915308393419</v>
       </c>
       <c r="J12" t="n">
-        <v>0.1640517162084344</v>
+        <v>0.4300165884280392</v>
       </c>
       <c r="K12" t="n">
-        <v>0.09622003276191904</v>
+        <v>0.2789041602255343</v>
       </c>
       <c r="L12" t="n">
-        <v>1.317264609046777</v>
+        <v>1.470218529808984</v>
       </c>
       <c r="M12" t="n">
-        <v>0.6497191250172576</v>
+        <v>0.4831880268677088</v>
       </c>
       <c r="N12" t="n">
-        <v>1.030919669348353</v>
+        <v>1.017100777948835</v>
       </c>
       <c r="O12" t="n">
-        <v>0.6773790132732438</v>
+        <v>0.503758341508572</v>
       </c>
       <c r="P12" t="n">
-        <v>147.724860499357</v>
+        <v>148.9093976460077</v>
       </c>
       <c r="Q12" t="n">
-        <v>236.7027957147357</v>
+        <v>237.8873328613863</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>model_15_7_8</t>
+          <t>model_15_7_13</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.9358126703109407</v>
+        <v>0.9646333663386214</v>
       </c>
       <c r="C13" t="n">
-        <v>0.7265413072289548</v>
+        <v>0.7535313852009407</v>
       </c>
       <c r="D13" t="n">
-        <v>0.9619341150916463</v>
+        <v>0.9848240078960504</v>
       </c>
       <c r="E13" t="n">
-        <v>0.9780601563033299</v>
+        <v>0.9298050652057084</v>
       </c>
       <c r="F13" t="n">
-        <v>0.9775638135252237</v>
+        <v>0.9770362630140267</v>
       </c>
       <c r="G13" t="n">
-        <v>0.4292209691862161</v>
+        <v>0.2364968421420128</v>
       </c>
       <c r="H13" t="n">
-        <v>1.828619537721479</v>
+        <v>1.648136762044929</v>
       </c>
       <c r="I13" t="n">
-        <v>0.02999213224931579</v>
+        <v>0.1242367488656262</v>
       </c>
       <c r="J13" t="n">
-        <v>0.1570589355350365</v>
+        <v>0.4342120269620224</v>
       </c>
       <c r="K13" t="n">
-        <v>0.09352553389217616</v>
+        <v>0.2792243879138243</v>
       </c>
       <c r="L13" t="n">
-        <v>1.333616282354016</v>
+        <v>1.485298533641995</v>
       </c>
       <c r="M13" t="n">
-        <v>0.655149577719635</v>
+        <v>0.4863094098842967</v>
       </c>
       <c r="N13" t="n">
-        <v>1.0314386920926</v>
+        <v>1.017322432813736</v>
       </c>
       <c r="O13" t="n">
-        <v>0.6830406515897482</v>
+        <v>0.5070126082623295</v>
       </c>
       <c r="P13" t="n">
-        <v>147.691566825948</v>
+        <v>148.8836408472087</v>
       </c>
       <c r="Q13" t="n">
-        <v>236.6695020413266</v>
+        <v>237.8615760625873</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>model_15_7_7</t>
+          <t>model_15_7_12</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0.9347065032259347</v>
+        <v>0.9641621360229696</v>
       </c>
       <c r="C14" t="n">
-        <v>0.7255053548926187</v>
+        <v>0.7529384659546139</v>
       </c>
       <c r="D14" t="n">
-        <v>0.9593361670195066</v>
+        <v>0.9852538362695458</v>
       </c>
       <c r="E14" t="n">
-        <v>0.9789682233806144</v>
+        <v>0.9290664387050004</v>
       </c>
       <c r="F14" t="n">
-        <v>0.9780980067811619</v>
+        <v>0.9769930760968812</v>
       </c>
       <c r="G14" t="n">
-        <v>0.4366179135770821</v>
+        <v>0.2396479614325922</v>
       </c>
       <c r="H14" t="n">
-        <v>1.835546955764681</v>
+        <v>1.652101615775257</v>
       </c>
       <c r="I14" t="n">
-        <v>0.03203905700475126</v>
+        <v>0.1207180016675848</v>
       </c>
       <c r="J14" t="n">
-        <v>0.1505584312231319</v>
+        <v>0.4387810248673581</v>
       </c>
       <c r="K14" t="n">
-        <v>0.09129874238643688</v>
+        <v>0.2797495132674715</v>
       </c>
       <c r="L14" t="n">
-        <v>1.350104192916997</v>
+        <v>1.500267107925335</v>
       </c>
       <c r="M14" t="n">
-        <v>0.6607706966694892</v>
+        <v>0.489538518844628</v>
       </c>
       <c r="N14" t="n">
-        <v>1.031980488215869</v>
+        <v>1.017553239498954</v>
       </c>
       <c r="O14" t="n">
-        <v>0.6889010732106181</v>
+        <v>0.5103791870762793</v>
       </c>
       <c r="P14" t="n">
-        <v>147.6573936119699</v>
+        <v>148.8571685196975</v>
       </c>
       <c r="Q14" t="n">
-        <v>236.6353288273485</v>
+        <v>237.8351037350762</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
         <is>
-          <t>model_15_7_6</t>
+          <t>model_15_7_11</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0.9335531644869696</v>
+        <v>0.9636718222690287</v>
       </c>
       <c r="C15" t="n">
-        <v>0.7244388643255839</v>
+        <v>0.7523284293528075</v>
       </c>
       <c r="D15" t="n">
-        <v>0.9561593485458725</v>
+        <v>0.985679029535288</v>
       </c>
       <c r="E15" t="n">
-        <v>0.9798082942110081</v>
+        <v>0.9282659143900401</v>
       </c>
       <c r="F15" t="n">
-        <v>0.9785191074543058</v>
+        <v>0.9769325788620992</v>
       </c>
       <c r="G15" t="n">
-        <v>0.444330295035179</v>
+        <v>0.2429266917628828</v>
       </c>
       <c r="H15" t="n">
-        <v>1.842678583097179</v>
+        <v>1.656180933340497</v>
       </c>
       <c r="I15" t="n">
-        <v>0.03454207407693281</v>
+        <v>0.1172371993178252</v>
       </c>
       <c r="J15" t="n">
-        <v>0.1445446859923175</v>
+        <v>0.4437329104478477</v>
       </c>
       <c r="K15" t="n">
-        <v>0.08954337877674212</v>
+        <v>0.2804851210373572</v>
       </c>
       <c r="L15" t="n">
-        <v>1.366730126960443</v>
+        <v>1.515134947328146</v>
       </c>
       <c r="M15" t="n">
-        <v>0.6665810491119434</v>
+        <v>0.4928759395252347</v>
       </c>
       <c r="N15" t="n">
-        <v>1.032545388822709</v>
+        <v>1.017793393174353</v>
       </c>
       <c r="O15" t="n">
-        <v>0.6949587843856352</v>
+        <v>0.5138586886646727</v>
       </c>
       <c r="P15" t="n">
-        <v>147.6223741707505</v>
+        <v>148.8299911222886</v>
       </c>
       <c r="Q15" t="n">
-        <v>236.6003093861291</v>
+        <v>237.8079263376672</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>model_15_7_5</t>
+          <t>model_15_7_10</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0.9323518242766362</v>
+        <v>0.9631620359581566</v>
       </c>
       <c r="C16" t="n">
-        <v>0.7233411436933388</v>
+        <v>0.7517011283940412</v>
       </c>
       <c r="D16" t="n">
-        <v>0.9523866751606577</v>
+        <v>0.9860993473245599</v>
       </c>
       <c r="E16" t="n">
-        <v>0.9805805392094393</v>
+        <v>0.927402829499696</v>
       </c>
       <c r="F16" t="n">
-        <v>0.9788256565771479</v>
+        <v>0.9768545381339102</v>
       </c>
       <c r="G16" t="n">
-        <v>0.4523636625533417</v>
+        <v>0.2463356351710338</v>
       </c>
       <c r="H16" t="n">
-        <v>1.850019046019541</v>
+        <v>1.660375697740222</v>
       </c>
       <c r="I16" t="n">
-        <v>0.03751456557096355</v>
+        <v>0.1137963095709229</v>
       </c>
       <c r="J16" t="n">
-        <v>0.1390164799074094</v>
+        <v>0.4490717834131817</v>
       </c>
       <c r="K16" t="n">
-        <v>0.08826552478804323</v>
+        <v>0.2814340464920523</v>
       </c>
       <c r="L16" t="n">
-        <v>1.383494297382911</v>
+        <v>1.529909330979851</v>
       </c>
       <c r="M16" t="n">
-        <v>0.6725798558932179</v>
+        <v>0.4963221082835559</v>
       </c>
       <c r="N16" t="n">
-        <v>1.033133800354301</v>
+        <v>1.018043084428658</v>
       </c>
       <c r="O16" t="n">
-        <v>0.7012129727908305</v>
+        <v>0.5174515679615884</v>
       </c>
       <c r="P16" t="n">
-        <v>147.5865377189325</v>
+        <v>148.8021206046873</v>
       </c>
       <c r="Q16" t="n">
-        <v>236.5644729343111</v>
+        <v>237.780055820066</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
         <is>
-          <t>model_15_7_4</t>
+          <t>model_15_7_9</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0.9311016666848946</v>
+        <v>0.9626324992649166</v>
       </c>
       <c r="C17" t="n">
-        <v>0.7222113927708541</v>
+        <v>0.751056359804148</v>
       </c>
       <c r="D17" t="n">
-        <v>0.9480005660366752</v>
+        <v>0.9865146205819068</v>
       </c>
       <c r="E17" t="n">
-        <v>0.9812854587974326</v>
+        <v>0.9264760536373441</v>
       </c>
       <c r="F17" t="n">
-        <v>0.9790164244103197</v>
+        <v>0.9767585876436955</v>
       </c>
       <c r="G17" t="n">
-        <v>0.4607234721257643</v>
+        <v>0.2498766494770226</v>
       </c>
       <c r="H17" t="n">
-        <v>1.857573695640221</v>
+        <v>1.664687268269725</v>
       </c>
       <c r="I17" t="n">
-        <v>0.04097038343052805</v>
+        <v>0.1103967163825361</v>
       </c>
       <c r="J17" t="n">
-        <v>0.1339702306424332</v>
+        <v>0.4548046361740057</v>
       </c>
       <c r="K17" t="n">
-        <v>0.08747030660482391</v>
+        <v>0.2826007432242341</v>
       </c>
       <c r="L17" t="n">
-        <v>1.400398954292707</v>
+        <v>1.54459714065228</v>
       </c>
       <c r="M17" t="n">
-        <v>0.6787661394956029</v>
+        <v>0.4998766342579163</v>
       </c>
       <c r="N17" t="n">
-        <v>1.033746122440052</v>
+        <v>1.018302449339633</v>
       </c>
       <c r="O17" t="n">
-        <v>0.7076626192935416</v>
+        <v>0.5211574174655604</v>
       </c>
       <c r="P17" t="n">
-        <v>147.5499145190172</v>
+        <v>148.7735757699493</v>
       </c>
       <c r="Q17" t="n">
-        <v>236.5278497343958</v>
+        <v>237.751510985328</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
         <is>
-          <t>model_15_7_3</t>
+          <t>model_15_7_8</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>0.9298019238954198</v>
+        <v>0.9620826481150648</v>
       </c>
       <c r="C18" t="n">
-        <v>0.7210488465181653</v>
+        <v>0.7503938834656697</v>
       </c>
       <c r="D18" t="n">
-        <v>0.9429847005469784</v>
+        <v>0.9869243843221956</v>
       </c>
       <c r="E18" t="n">
-        <v>0.9819228632512702</v>
+        <v>0.9254842732006195</v>
       </c>
       <c r="F18" t="n">
-        <v>0.9790897035596468</v>
+        <v>0.9766442614572756</v>
       </c>
       <c r="G18" t="n">
-        <v>0.469414858143747</v>
+        <v>0.2535535066479128</v>
       </c>
       <c r="H18" t="n">
-        <v>1.865347647784985</v>
+        <v>1.669117250595552</v>
       </c>
       <c r="I18" t="n">
-        <v>0.04492238668682835</v>
+        <v>0.1070422263071713</v>
       </c>
       <c r="J18" t="n">
-        <v>0.1294072963567969</v>
+        <v>0.4609395944155577</v>
       </c>
       <c r="K18" t="n">
-        <v>0.08716484152181264</v>
+        <v>0.2839908766962011</v>
       </c>
       <c r="L18" t="n">
-        <v>1.418147292806142</v>
+        <v>1.559205220843251</v>
       </c>
       <c r="M18" t="n">
-        <v>0.6851385685711665</v>
+        <v>0.5035409681921749</v>
       </c>
       <c r="N18" t="n">
-        <v>1.034382731153264</v>
+        <v>1.01857176418854</v>
       </c>
       <c r="O18" t="n">
-        <v>0.7143063358675986</v>
+        <v>0.5249777496816173</v>
       </c>
       <c r="P18" t="n">
-        <v>147.5125366851713</v>
+        <v>148.7443608132679</v>
       </c>
       <c r="Q18" t="n">
-        <v>236.49047190055</v>
+        <v>237.7222960286466</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
         <is>
-          <t>model_15_7_2</t>
+          <t>model_15_7_7</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0.928451870541374</v>
+        <v>0.9615120905150375</v>
       </c>
       <c r="C19" t="n">
-        <v>0.7198527338429788</v>
+        <v>0.7497135228390097</v>
       </c>
       <c r="D19" t="n">
-        <v>0.9373222460261393</v>
+        <v>0.9873285514495327</v>
       </c>
       <c r="E19" t="n">
-        <v>0.9824931923160998</v>
+        <v>0.9244262920539981</v>
       </c>
       <c r="F19" t="n">
-        <v>0.9790442822781718</v>
+        <v>0.9765112070258525</v>
       </c>
       <c r="G19" t="n">
-        <v>0.4784426711386755</v>
+        <v>0.2573688279464722</v>
       </c>
       <c r="H19" t="n">
-        <v>1.87334605875155</v>
+        <v>1.6736668252388</v>
       </c>
       <c r="I19" t="n">
-        <v>0.04938383780647566</v>
+        <v>0.1037335523466967</v>
       </c>
       <c r="J19" t="n">
-        <v>0.1253245290834636</v>
+        <v>0.4674840571963602</v>
       </c>
       <c r="K19" t="n">
-        <v>0.08735418072189413</v>
+        <v>0.2856087336763609</v>
       </c>
       <c r="L19" t="n">
-        <v>1.436764061427563</v>
+        <v>1.573753250328546</v>
       </c>
       <c r="M19" t="n">
-        <v>0.6916955046396323</v>
+        <v>0.5073153141257143</v>
       </c>
       <c r="N19" t="n">
-        <v>1.035043981775654</v>
+        <v>1.018851220972226</v>
       </c>
       <c r="O19" t="n">
-        <v>0.7211424142792278</v>
+        <v>0.5289127773355208</v>
       </c>
       <c r="P19" t="n">
-        <v>147.4744377695988</v>
+        <v>148.7144901894056</v>
       </c>
       <c r="Q19" t="n">
-        <v>236.4523729849775</v>
+        <v>237.6924254047842</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
         <is>
-          <t>model_15_7_1</t>
+          <t>model_15_7_6</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0.9270504602832055</v>
+        <v>0.9609204595517444</v>
       </c>
       <c r="C20" t="n">
-        <v>0.718622145809515</v>
+        <v>0.7490150450532482</v>
       </c>
       <c r="D20" t="n">
-        <v>0.930996369459918</v>
+        <v>0.9877266808292695</v>
       </c>
       <c r="E20" t="n">
-        <v>0.9829959049210124</v>
+        <v>0.9233013512334644</v>
       </c>
       <c r="F20" t="n">
-        <v>0.9788781028649297</v>
+        <v>0.9763590790683649</v>
       </c>
       <c r="G20" t="n">
-        <v>0.4878139079879492</v>
+        <v>0.261325066922223</v>
       </c>
       <c r="H20" t="n">
-        <v>1.881575006597659</v>
+        <v>1.678337549408381</v>
       </c>
       <c r="I20" t="n">
-        <v>0.05436799953091043</v>
+        <v>0.1004743058060031</v>
       </c>
       <c r="J20" t="n">
-        <v>0.1217258021417758</v>
+        <v>0.4744427193181744</v>
       </c>
       <c r="K20" t="n">
-        <v>0.08804690175819069</v>
+        <v>0.2874585125620888</v>
       </c>
       <c r="L20" t="n">
-        <v>1.455566802700075</v>
+        <v>1.589150278870497</v>
       </c>
       <c r="M20" t="n">
-        <v>0.6984367601923235</v>
+        <v>0.5111996350959408</v>
       </c>
       <c r="N20" t="n">
-        <v>1.035730386800063</v>
+        <v>1.019140999403227</v>
       </c>
       <c r="O20" t="n">
-        <v>0.7281706590371199</v>
+        <v>0.5329624618911026</v>
       </c>
       <c r="P20" t="n">
-        <v>147.4356425638927</v>
+        <v>148.6839803589506</v>
       </c>
       <c r="Q20" t="n">
-        <v>236.4135777792713</v>
+        <v>237.6619155743292</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="inlineStr">
         <is>
+          <t>model_15_7_5</t>
+        </is>
+      </c>
+      <c r="B21" t="n">
+        <v>0.96030729084918</v>
+      </c>
+      <c r="C21" t="n">
+        <v>0.7482982836572052</v>
+      </c>
+      <c r="D21" t="n">
+        <v>0.9881183451795893</v>
+      </c>
+      <c r="E21" t="n">
+        <v>0.9221081774569866</v>
+      </c>
+      <c r="F21" t="n">
+        <v>0.9761874246444728</v>
+      </c>
+      <c r="G21" t="n">
+        <v>0.2654253288596533</v>
+      </c>
+      <c r="H21" t="n">
+        <v>1.683130536164104</v>
+      </c>
+      <c r="I21" t="n">
+        <v>0.09726798458515562</v>
+      </c>
+      <c r="J21" t="n">
+        <v>0.481823457052608</v>
+      </c>
+      <c r="K21" t="n">
+        <v>0.2895457208188819</v>
+      </c>
+      <c r="L21" t="n">
+        <v>1.605050621021181</v>
+      </c>
+      <c r="M21" t="n">
+        <v>0.5151944573262152</v>
+      </c>
+      <c r="N21" t="n">
+        <v>1.019441326931014</v>
+      </c>
+      <c r="O21" t="n">
+        <v>0.5371273519741419</v>
+      </c>
+      <c r="P21" t="n">
+        <v>148.652843450181</v>
+      </c>
+      <c r="Q21" t="n">
+        <v>237.6307786655597</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="inlineStr">
+        <is>
+          <t>model_15_7_4</t>
+        </is>
+      </c>
+      <c r="B22" t="n">
+        <v>0.9596721606671424</v>
+      </c>
+      <c r="C22" t="n">
+        <v>0.7475630257401564</v>
+      </c>
+      <c r="D22" t="n">
+        <v>0.9885033246991156</v>
+      </c>
+      <c r="E22" t="n">
+        <v>0.9208456735255263</v>
+      </c>
+      <c r="F22" t="n">
+        <v>0.9759958848278838</v>
+      </c>
+      <c r="G22" t="n">
+        <v>0.2696724473114444</v>
+      </c>
+      <c r="H22" t="n">
+        <v>1.68804720924096</v>
+      </c>
+      <c r="I22" t="n">
+        <v>0.09411638806624645</v>
+      </c>
+      <c r="J22" t="n">
+        <v>0.4896330574565894</v>
+      </c>
+      <c r="K22" t="n">
+        <v>0.2918747227614179</v>
+      </c>
+      <c r="L22" t="n">
+        <v>1.621404208046036</v>
+      </c>
+      <c r="M22" t="n">
+        <v>0.5192999588979806</v>
+      </c>
+      <c r="N22" t="n">
+        <v>1.019752411101808</v>
+      </c>
+      <c r="O22" t="n">
+        <v>0.5414076332473772</v>
+      </c>
+      <c r="P22" t="n">
+        <v>148.621094429123</v>
+      </c>
+      <c r="Q22" t="n">
+        <v>237.5990296445017</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="inlineStr">
+        <is>
+          <t>model_15_7_3</t>
+        </is>
+      </c>
+      <c r="B23" t="n">
+        <v>0.959014592427994</v>
+      </c>
+      <c r="C23" t="n">
+        <v>0.746809085677018</v>
+      </c>
+      <c r="D23" t="n">
+        <v>0.988881055444123</v>
+      </c>
+      <c r="E23" t="n">
+        <v>0.9195128063765201</v>
+      </c>
+      <c r="F23" t="n">
+        <v>0.9757840126960164</v>
+      </c>
+      <c r="G23" t="n">
+        <v>0.2740696091544529</v>
+      </c>
+      <c r="H23" t="n">
+        <v>1.693088809914742</v>
+      </c>
+      <c r="I23" t="n">
+        <v>0.09102413291845354</v>
+      </c>
+      <c r="J23" t="n">
+        <v>0.4978779108514546</v>
+      </c>
+      <c r="K23" t="n">
+        <v>0.2944509526830887</v>
+      </c>
+      <c r="L23" t="n">
+        <v>1.637788782053726</v>
+      </c>
+      <c r="M23" t="n">
+        <v>0.5235165796366462</v>
+      </c>
+      <c r="N23" t="n">
+        <v>1.020074485341391</v>
+      </c>
+      <c r="O23" t="n">
+        <v>0.545803764260496</v>
+      </c>
+      <c r="P23" t="n">
+        <v>148.5887463136997</v>
+      </c>
+      <c r="Q23" t="n">
+        <v>237.5666815290783</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="inlineStr">
+        <is>
+          <t>model_15_7_2</t>
+        </is>
+      </c>
+      <c r="B24" t="n">
+        <v>0.9583342033368861</v>
+      </c>
+      <c r="C24" t="n">
+        <v>0.7460363403724359</v>
+      </c>
+      <c r="D24" t="n">
+        <v>0.9892512093320142</v>
+      </c>
+      <c r="E24" t="n">
+        <v>0.9181089927272207</v>
+      </c>
+      <c r="F24" t="n">
+        <v>0.9755515323668442</v>
+      </c>
+      <c r="G24" t="n">
+        <v>0.2786193741395949</v>
+      </c>
+      <c r="H24" t="n">
+        <v>1.698256161324648</v>
+      </c>
+      <c r="I24" t="n">
+        <v>0.08799390495730433</v>
+      </c>
+      <c r="J24" t="n">
+        <v>0.5065616253092791</v>
+      </c>
+      <c r="K24" t="n">
+        <v>0.2972777651332917</v>
+      </c>
+      <c r="L24" t="n">
+        <v>1.654215341375413</v>
+      </c>
+      <c r="M24" t="n">
+        <v>0.5278440812774118</v>
+      </c>
+      <c r="N24" t="n">
+        <v>1.020407737141117</v>
+      </c>
+      <c r="O24" t="n">
+        <v>0.5503154966052723</v>
+      </c>
+      <c r="P24" t="n">
+        <v>148.5558173579866</v>
+      </c>
+      <c r="Q24" t="n">
+        <v>237.5337525733652</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="1" t="inlineStr">
+        <is>
+          <t>model_15_7_1</t>
+        </is>
+      </c>
+      <c r="B25" t="n">
+        <v>0.9576305083177107</v>
+      </c>
+      <c r="C25" t="n">
+        <v>0.745244570197519</v>
+      </c>
+      <c r="D25" t="n">
+        <v>0.989613315143136</v>
+      </c>
+      <c r="E25" t="n">
+        <v>0.9166326264917869</v>
+      </c>
+      <c r="F25" t="n">
+        <v>0.9752978908809257</v>
+      </c>
+      <c r="G25" t="n">
+        <v>0.2833249859730389</v>
+      </c>
+      <c r="H25" t="n">
+        <v>1.703550732130084</v>
+      </c>
+      <c r="I25" t="n">
+        <v>0.08502956177558725</v>
+      </c>
+      <c r="J25" t="n">
+        <v>0.5156941357604194</v>
+      </c>
+      <c r="K25" t="n">
+        <v>0.3003618837459722</v>
+      </c>
+      <c r="L25" t="n">
+        <v>1.670708134729294</v>
+      </c>
+      <c r="M25" t="n">
+        <v>0.5322828063849507</v>
+      </c>
+      <c r="N25" t="n">
+        <v>1.020752404089285</v>
+      </c>
+      <c r="O25" t="n">
+        <v>0.5549431874300669</v>
+      </c>
+      <c r="P25" t="n">
+        <v>148.522321359743</v>
+      </c>
+      <c r="Q25" t="n">
+        <v>237.5002565751217</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="1" t="inlineStr">
+        <is>
           <t>model_15_7_0</t>
         </is>
       </c>
-      <c r="B21" t="n">
-        <v>0.9255968229307963</v>
-      </c>
-      <c r="C21" t="n">
-        <v>0.7173562193939809</v>
-      </c>
-      <c r="D21" t="n">
-        <v>0.9239899882316149</v>
-      </c>
-      <c r="E21" t="n">
-        <v>0.983431037026716</v>
-      </c>
-      <c r="F21" t="n">
-        <v>0.9785895844078489</v>
-      </c>
-      <c r="G21" t="n">
-        <v>0.4975343876568938</v>
-      </c>
-      <c r="H21" t="n">
-        <v>1.89004026236739</v>
-      </c>
-      <c r="I21" t="n">
-        <v>0.05988833126349224</v>
-      </c>
-      <c r="J21" t="n">
-        <v>0.1186108581028031</v>
-      </c>
-      <c r="K21" t="n">
-        <v>0.08924959468314769</v>
-      </c>
-      <c r="L21" t="n">
-        <v>1.474557103028354</v>
-      </c>
-      <c r="M21" t="n">
-        <v>0.7053611753257291</v>
-      </c>
-      <c r="N21" t="n">
-        <v>1.036442372442059</v>
-      </c>
-      <c r="O21" t="n">
-        <v>0.7353898608582699</v>
-      </c>
-      <c r="P21" t="n">
-        <v>147.3961812077077</v>
-      </c>
-      <c r="Q21" t="n">
-        <v>236.3741164230863</v>
+      <c r="B26" t="n">
+        <v>0.9569030398994238</v>
+      </c>
+      <c r="C26" t="n">
+        <v>0.7444336591689464</v>
+      </c>
+      <c r="D26" t="n">
+        <v>0.9899668206446396</v>
+      </c>
+      <c r="E26" t="n">
+        <v>0.9150833132496459</v>
+      </c>
+      <c r="F26" t="n">
+        <v>0.9750228078452028</v>
+      </c>
+      <c r="G26" t="n">
+        <v>0.2881895706358076</v>
+      </c>
+      <c r="H26" t="n">
+        <v>1.70897329791205</v>
+      </c>
+      <c r="I26" t="n">
+        <v>0.08213562417255663</v>
+      </c>
+      <c r="J26" t="n">
+        <v>0.5252778820127756</v>
+      </c>
+      <c r="K26" t="n">
+        <v>0.3037067179217915</v>
+      </c>
+      <c r="L26" t="n">
+        <v>1.68728468185373</v>
+      </c>
+      <c r="M26" t="n">
+        <v>0.5368329075567254</v>
+      </c>
+      <c r="N26" t="n">
+        <v>1.021108715151303</v>
+      </c>
+      <c r="O26" t="n">
+        <v>0.5596869958287318</v>
+      </c>
+      <c r="P26" t="n">
+        <v>148.4882735680222</v>
+      </c>
+      <c r="Q26" t="n">
+        <v>237.4662087834009</v>
       </c>
     </row>
   </sheetData>
